--- a/Final_Project_GM/Pig/가축 추가하기.xlsx
+++ b/Final_Project_GM/Pig/가축 추가하기.xlsx
@@ -64,43 +64,45 @@
     <t>발정기 여부</t>
   </si>
   <si>
+    <t>백신 접종 데이터</t>
+  </si>
+  <si>
+    <t>질병 및 치료 정보: (양식 예 : ASF(2023-01-01/2023-01-02 치료); (여러 타입일 경우 ;필수) PRRS(2023-01-01/2023-01-02 치료)) 오른쪽 칸에 작성해주세요!</t>
+  </si>
+  <si>
+    <t>질병 및 치료 데이터</t>
+  </si>
+  <si>
+    <t>출산 횟수</t>
+  </si>
+  <si>
+    <t>출산일</t>
+  </si>
+  <si>
+    <t>출산 예정일</t>
+  </si>
+  <si>
+    <t>우유 생산량</t>
+  </si>
+  <si>
+    <t>폐사여부</t>
+  </si>
+  <si>
+    <t>산란량</t>
+  </si>
+  <si>
+    <t>작성 금지</t>
+  </si>
+  <si>
+    <t>양돈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>임신 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>백신 정보: (양식 예 : 백신A(2023-01-01); (여러 타입일 경우 ;필수) 백신B(2023-02-02)) 이런 방식으로 오른쪽 칸에 작성해주세요!</t>
-  </si>
-  <si>
-    <t>백신 접종 데이터</t>
-  </si>
-  <si>
-    <t>질병 및 치료 정보: (양식 예 : ASF(2023-01-01/2023-01-02 치료); (여러 타입일 경우 ;필수) PRRS(2023-01-01/2023-01-02 치료)) 오른쪽 칸에 작성해주세요!</t>
-  </si>
-  <si>
-    <t>질병 및 치료 데이터</t>
-  </si>
-  <si>
-    <t>출산 횟수</t>
-  </si>
-  <si>
-    <t>출산일</t>
-  </si>
-  <si>
-    <t>출산 예정일</t>
-  </si>
-  <si>
-    <t>우유 생산량</t>
-  </si>
-  <si>
-    <t>폐사여부</t>
-  </si>
-  <si>
-    <t>산란량</t>
-  </si>
-  <si>
-    <t>작성 금지</t>
-  </si>
-  <si>
-    <t>양돈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -202,6 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,14 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="130" customWidth="1"/>
     <col min="19" max="19" width="100" customWidth="1"/>
     <col min="20" max="20" width="150" customWidth="1"/>
@@ -549,42 +555,42 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="4">
@@ -603,13 +609,15 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="5">
+        <v>44446</v>
+      </c>
       <c r="R2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -621,378 +629,524 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>44446</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>44446</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>44446</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>44458</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>44458</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>44458</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>44458</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>44457</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>44457</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>44457</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>44457</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>44453</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>44453</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q16" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q17" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q18" s="5">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q19" s="5">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q20" s="5">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q21" s="5">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q22" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q23" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q24" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q25" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q26" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q27" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q28" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q29" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q30" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q31" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q32" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q33" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q34" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q35" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q36" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q37" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q38" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q39" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q40" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q41" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q42" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q43" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q44" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q45" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q46" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q47" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="4">
         <v>201990</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q48" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4">
         <v>201990</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q50" s="5">
+        <v>44453</v>
       </c>
     </row>
   </sheetData>
